--- a/Report/Data/TestResult.xlsx
+++ b/Report/Data/TestResult.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ACC" sheetId="1" r:id="rId1"/>
+    <sheet name="AEB" sheetId="2" r:id="rId2"/>
+    <sheet name="LKA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,38 +26,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraight001SlopeAngle0pctSpd30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraight002SlopeAngle2pctSpd30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraight003SlopeAngle5pctSpd30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC001StraightCC0PctSpd30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC002StraightCC0PctSpd90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEB001StraightCC0PctSpd30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEB001StraightCC0PctSpd90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LKA001StraightCC0PctSpd30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LKA001StraightCC0PctSpd90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ACCStraightWithLeadingCar001SlopeAngle0pctSpd30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar002SlopeAngle0pctSpd60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar002SlopeAngle2pctSpd30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar003SlopeAngle2pctSpd30</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar003SlopeAngle5pctSpd30</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar004SlopeAngle2pctSpd60</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar005SlopeAngle5pctSpd30</t>
+  </si>
+  <si>
+    <t>ACCStraightWithLeadingCar006SlopeAngle5pctSpd60</t>
   </si>
 </sst>
 </file>
@@ -385,28 +423,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -414,34 +452,74 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -449,4 +527,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>